--- a/Alarm/V1.1/BOM表/报警器BOM需要采购.xlsx
+++ b/Alarm/V1.1/BOM表/报警器BOM需要采购.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\wc\Alarm\原理图修改中\BOM表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\wc\Alarm\V1.1\BOM表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1911C241-E3AA-4832-A731-50018C806C9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64404C66-DE02-44A2-983D-E71A0922A68D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{86B3CF72-3759-4A1C-8F38-0DD62C3C61F5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Value</t>
   </si>
@@ -132,6 +132,10 @@
   </si>
   <si>
     <t>P8 0.5间距 长10cm 反向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFV8R-3STBE1HLF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,185 +500,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5F241D-FED7-4925-8D39-0AE47C7CB3CD}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="30.875" customWidth="1"/>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="28.125" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
-    <col min="8" max="8" width="63.875" customWidth="1"/>
+    <col min="1" max="1" width="30.875" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="28.125" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="63.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2">
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3">
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
         <v>29</v>
       </c>
-      <c r="I7">
+      <c r="H7">
         <v>1</v>
       </c>
     </row>
